--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TlRjNE5EaG1OaTFpTkRRNExUUXlPREV0T0RGaE5TMWxNamt3TXpNeFpUa3laR0lRQVE9PRAIGiQwQzY5MDE0QS00MzJDLTRBMkUtQjM2QS00RTUxRjEwMjNCRDU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TlRjNE5EaG1OaTFpTkRRNExUUXlPREV0T0RGaE5TMWxNamt3TXpNeFpUa3laR0lRQVE9PRAIGiQwQzY5MDE0QS00MzJDLTRBMkUtQjM2QS00RTUxRjEwMjNCRDU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TlRjNE5EaG1OaTFpTkRRNExUUXlPREV0T0RGaE5TMWxNamt3TXpNeFpUa3laR0lRQVE9PRAIGiQwQzY5MDE0QS00MzJDLTRBMkUtQjM2QS00RTUxRjEwMjNCRDU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -544,10 +544,126 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TlRjNE5EaG1OaTFpTkRRNExUUXlPREV0T0RGaE5TMWxNamt3TXpNeFpUa3laR0lRQVE9PRAIGiQwQzY5MDE0QS00MzJDLTRBMkUtQjM2QS00RTUxRjEwMjNCRDU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BY</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$8.54</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>$8.54</t>
         </is>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BY</t>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -514,42 +514,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$7.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$7.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$7.34</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1RMFlUZ3hOaTFtWlRNMkxUUXdORGN0T0dGbU9TMHpZelpoTkRKaVl6Y3labVVRQVE9PRAIGiRENUU4OUJFQi04NzhFLTQ3N0ItODlGMC0wMkQ2RjkxMjdGREI</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$7.34</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BY</t>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -572,42 +572,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWVRSaFlqSmxOeTFqWVRaaUxUUmpaVE10WVdabU15MW1NVFl4TkROa05XSXhPRFlRQVE9PRAIGiQwRjk1RDcxNi00NTA5LTRGN0QtOTJERS1EMjY1NTc4Nzk1QUU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$41.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsWW1ObU5qQTFZeTB5TXpkbExUUmpPVEF0WVdNeU15MDFOVFk0T1RkaVpUazNaVGtRQVE9PRAIGiQwREU0QjBCMi05ODE3LTRFMDQtOUY0My0wRUNDNkZBQjg5MEU</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$29.15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTnpNNU9XSTBOaTAxT1dKbUxUUXpObU10WWpVellTMWxOVEV4TkRNNFpUVXdaV1lRQVE9PRAIGiRCOUM5N0RCRS04RUM3LTQyRTctODg0Qi1DQ0E1RUFEQTY2QTU</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$26.23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTXpkbVpUazROaTFpTldOa0xUUXhZek10T0dJd09TMWtNVGxoTVdVMFlqRTBPV1VRQVE9PRAIGiQ2RkNCRThFRi03OUI4LTRFOUYtODcxRS1EODg3NjhEMTc3QkU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWkdSaE1qYzBOaTB3WkRKaUxUUTFObU10T0RsaE15MDROekU0Wm1NeE0yRmpNR0lRQVE9PRAIGiRBRkVEODAyQi03MDlBLTQ3QTMtOEY0Qi0xMTZEREI5NDFBRkQ</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$18.74</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BY</t>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -630,42 +630,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzT1RsalpHWmpOeTB6TnpJM0xUUTJaak10T1dKbU1pMDBOalprWW1VeE16YzJZemdRQVE9PRAIGiRFOTc0RTY5MC1COEM3LTRBMTQtODg1NS02M0YzMDVERjEwMzk</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$401.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5TmpkaVptUmhOQzAwTldaakxUUTBPVFV0T0Roa01TMWhaR1ZtTnpRNE1qSTVNVElRQVE9PRAIGiRGMjhDMjVGMS1FQzk0LTQzNEItODAyNi03MjcxQzBBMTAzRTI</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$319.91</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWTJZek1XUTJOQzFrWVRNekxUUTBNV0l0T0RRd1pTMDJaakExT1RRellqRTFNakVRQVE9PRAIGiRGQUQ5OTg4MC02ODM3LTRGRUYtOUMwMy02NTJGOTZDODlDNTA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$254.17</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpCbE9EZGlNUzB4WTJFeUxUUTROVEl0WW1VMk9DMWtZVE16TWpReE9HVTVZalFRQVE9PRAIGiRFMUY2OTVEQy03NjExLTQ3MzktOTBFNC0zMzVDQjIyMzk3NTc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyT1RJd01XWmtOUzFpWlRZeExUUTJNV0V0WVdRM09TMHdZekJoTkdZME1UUTJaRFlRQVE9PRAIGiQzRUIyQUUzMC0yNzg1LTQ4MEQtQjM2NC01QkY3MDMzMkZCQUE</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$8.54</t>
+          <t>$185.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1WWpBNFlXSmpOUzB4WmpCakxUUmlPR0l0T1RNMllpMWlaV1JoWkRGak9EVmhOREVRQVE9PRAIGiQyM0FGODdGNi1GQUNDLTQwMDgtODAwNy04RjNDNzc3Mjc0MzA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>$109.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5Wm1JNFpqUTRaUzFsTXpRd0xUUTFPR1V0T0dFME5pMDJZMkl5Wmpka1pUZ3hOVFFRQVE9PRAIGiQ0Qzk5QjExNy1CNERFLTQ2OTgtQkFCNy1ENDlDOTcyMkUzRUQ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$87.62</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqWmpoaFpEbGtNaTAzTWpBeUxUUTNPRE10WVRJNFlTMHlZamsxTTJGbE1tUTROR01RQVE9PRAIGiQzRTcyNTZGOC03MzU5LTQ3OUQtQTU4NS01REM1Qjc0MjA1OEY</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>$24.71</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTjJSbU4ySTRaQzAyTmpJNExUUTJPREV0WW1JNU55MDNaV014TnpOak56ZzROVGNRQVE9PRAIGiQwMDRCNkZENy1GNjlFLTQxQ0UtOEI3My04NjVGNUYwQUZFMjQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWVRSaFlqSmxOeTFqWVRaaUxUUmpaVE10WVdabU15MW1NVFl4TkROa05XSXhPRFlRQVE9PRAIGiQwRjk1RDcxNi00NTA5LTRGN0QtOTJERS1EMjY1NTc4Nzk1QUU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTXpsaVl6WXdPQzB6TmpOaExUUTROekl0T1dKa01pMWlabVU1WTJJMU1qZzBNR1FRQVE9PRAIGiQ5MzQ4RUNENC1ERDVBLTRCODItOTJGMi1ERDYwMkYxQTI3OUQ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsWW1ObU5qQTFZeTB5TXpkbExUUmpPVEF0WVdNeU15MDFOVFk0T1RkaVpUazNaVGtRQVE9PRAIGiQwREU0QjBCMi05ODE3LTRFMDQtOUY0My0wRUNDNkZBQjg5MEU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6T0Rjd00ySXpZUzFqWmpBMExUUmxPRFV0WVdZellTMDVaV1E1TVRSak4yRTRNREVRQVE9PRAIGiRBQUIzMTNFRS0zOUE5LTQ3REItQTQ5OS1GQTFFNjczMjRFMTI</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTnpNNU9XSTBOaTAxT1dKbUxUUXpObU10WWpVellTMWxOVEV4TkRNNFpUVXdaV1lRQVE9PRAIGiRCOUM5N0RCRS04RUM3LTQyRTctODg0Qi1DQ0E1RUFEQTY2QTU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTVRBNFpqRTJOUzB5WlRjM0xUUXpZVEF0T0RNMk5pMWpPRGd3TjJJMk1tRTRNVElRQVE9PRAIGiQ4MEJCNzI2Qy03NThBLTQ0NzktQTE4RC0yMDM1RkEyM0MwOUY</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWkdSaE1qYzBOaTB3WkRKaUxUUTFObU10T0RsaE15MDROekU0Wm1NeE0yRmpNR0lRQVE9PRAIGiRBRkVEODAyQi03MDlBLTQ3QTMtOEY0Qi0xMTZEREI5NDFBRkQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWW1NME56bG1NeTAzWmpJNExUUTVNak10WVRjM1lTMW1PVGhqWkRVMU5UWTJORE1RQVE9PRAIGiQ0MDA5RUYyMi03QUE4LTREQ0MtQkUwMS0xQzYzNUIwMUI0MzU</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -630,42 +630,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzT1RsalpHWmpOeTB6TnpJM0xUUTJaak10T1dKbU1pMDBOalprWW1VeE16YzJZemdRQVE9PRAIGiRFOTc0RTY5MC1COEM3LTRBMTQtODg1NS02M0YzMDVERjEwMzk</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTWpaaE1EUmhaaTAzWkRJMUxUUXdNall0WWpOa1lTMW1aVEk1WkRKaU5UQmlaR01RQVE9PRAIGiQyNTA5MUQ5OC03MTFCLTRDMzgtQkJENy05NDQ1NUMzODg2REE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$401.04</t>
+          <t>$16.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5TmpkaVptUmhOQzAwTldaakxUUTBPVFV0T0Roa01TMWhaR1ZtTnpRNE1qSTVNVElRQVE9PRAIGiRGMjhDMjVGMS1FQzk0LTQzNEItODAyNi03MjcxQzBBMTAzRTI</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$319.91</t>
+          <t>$16.91</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWTJZek1XUTJOQzFrWVRNekxUUTBNV0l0T0RRd1pTMDJaakExT1RRellqRTFNakVRQVE9PRAIGiRGQUQ5OTg4MC02ODM3LTRGRUYtOUMwMy02NTJGOTZDODlDNTA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$254.17</t>
+          <t>$16.91</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyT1RJd01XWmtOUzFpWlRZeExUUTJNV0V0WVdRM09TMHdZekJoTkdZME1UUTJaRFlRQVE9PRAIGiQzRUIyQUUzMC0yNzg1LTQ4MEQtQjM2NC01QkY3MDMzMkZCQUE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$185.42</t>
+          <t>$16.91</t>
         </is>
       </c>
     </row>
@@ -688,42 +688,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1WWpBNFlXSmpOUzB4WmpCakxUUmlPR0l0T1RNMllpMWlaV1JoWkRGak9EVmhOREVRQVE9PRAIGiQyM0FGODdGNi1GQUNDLTQwMDgtODAwNy04RjNDNzc3Mjc0MzA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWXpsbU5HWXdOQzAyTkdGbUxUUTFNV1F0WVdVMFppMHlOREkwWkRaalpXVXdNR1VRQVE9PRAIGiRGRjdBRUM0NC0wQUJELTREOEItOEQ1Mi0xNTgwMUQ0NkQ4REE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$109.84</t>
+          <t>$65.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5Wm1JNFpqUTRaUzFsTXpRd0xUUTFPR1V0T0dFME5pMDJZMkl5Wmpka1pUZ3hOVFFRQVE9PRAIGiQ0Qzk5QjExNy1CNERFLTQ2OTgtQkFCNy1ENDlDOTcyMkUzRUQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$87.62</t>
+          <t>$58.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>$58.79</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqWmpoaFpEbGtNaTAzTWpBeUxUUTNPRE10WVRJNFlTMHlZamsxTTJGbE1tUTROR01RQVE9PRAIGiQzRTcyNTZGOC03MzU5LTQ3OUQtQTU4NS01REM1Qjc0MjA1OEY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>$24.71</t>
+          <t>$58.79</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,216 +514,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1TkRGaFlUbGhPQzAzT0RGbExUUTBNekF0WVdJd1ppMWxaVGd3WXpjM1pqQmtOMk1RQVE9PRAIGiQ2OUZBOUVEMS05NDE5LTRDNEMtQTVBOS00RkZGM0FBQ0FCMTU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$41.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWlRNeU5qaGlOeTB4WWpJd0xUUXhNV0l0WVdNeE1TMHpZV1psWXpVek1UZ3dORFFRQVE9PRAIGiRFNUY3NDIzOS03RTBCLTRERUEtQUIyNy01MkIyRDVFMjYzQ0Q</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$29.15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWVdJMk16STJZeTFpTm1VeUxUUmpaakl0WW1NMk1TMDNZVFkzTmpJNU16SXdZV0lRQVE9PRAIGiRCNjgwNDJGNy0zRUMxLTQ3NUQtQjg4Qy1GODM0OURGMzZDQUY</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$26.23</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTlRBM056aGtNeTAyTkRkaUxUUXlaR0l0T1dFNFlpMHpPV0kyT0RJNVpEZzRabUVRQVE9PRAIGiRFN0M2NTdFQy1DQkUzLTRGQ0YtOEI2Qi1FQzc4ODA1RDgwRDA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtWVRnMVkyVTJaUzAxWXpabExUUmpaRGN0WW1Fd01TMWhZemhoTURBNVpqUXlaRGNRQVE9PRAIGiQ2Q0U4NUJGQy00MkFDLTRCNzktOTEwMy1FQTY5NUNFQ0NCM0E</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$7.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>general purpose</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTXpsaVl6WXdPQzB6TmpOaExUUTROekl0T1dKa01pMWlabVU1WTJJMU1qZzBNR1FRQVE9PRAIGiQ5MzQ4RUNENC1ERDVBLTRCODItOTJGMi1ERDYwMkYxQTI3OUQ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$41.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6T0Rjd00ySXpZUzFqWmpBMExUUmxPRFV0WVdZellTMDVaV1E1TVRSak4yRTRNREVRQVE9PRAIGiRBQUIzMTNFRS0zOUE5LTQ3REItQTQ5OS1GQTFFNjczMjRFMTI</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>$29.15</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTVRBNFpqRTJOUzB5WlRjM0xUUXpZVEF0T0RNMk5pMWpPRGd3TjJJMk1tRTRNVElRQVE9PRAIGiQ4MEJCNzI2Qy03NThBLTQ0NzktQTE4RC0yMDM1RkEyM0MwOUY</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$26.23</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWW1NME56bG1NeTAzWmpJNExUUTVNak10WVRjM1lTMW1PVGhqWkRVMU5UWTJORE1RQVE9PRAIGiQ0MDA5RUYyMi03QUE4LTREQ0MtQkUwMS0xQzYzNUIwMUI0MzU</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>$18.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>general purpose</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTWpaaE1EUmhaaTAzWkRJMUxUUXdNall0WWpOa1lTMW1aVEk1WkRKaU5UQmlaR01RQVE9PRAIGiQyNTA5MUQ5OC03MTFCLTRDMzgtQkJENy05NDQ1NUMzODg2REE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$16.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>$16.91</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>$16.91</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTm1ZNU5tWTBNaTFpTWpNeExUUmxORGN0T1RRNE9TMDRPV000TWpVd1lqSXlNallRQVE9PRAIGiQ4N0JCRkJENC1CQzAyLTRBOTctQjVERC1FMzY2NUM1MjA3NkU</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>$16.91</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>general purpose</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWXpsbU5HWXdOQzAyTkdGbUxUUTFNV1F0WVdVMFppMHlOREkwWkRaalpXVXdNR1VRQVE9PRAIGiRGRjdBRUM0NC0wQUJELTREOEItOEQ1Mi0xNTgwMUQ0NkQ4REE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$65.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$58.79</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$58.79</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWpJNE5HVmpPQzA1WVdaa0xUUm1PR0l0WVRjek9TMHhNelkxWm1aaE16WmxOVElRQVE9PRAIGiRBQkZCRjVEMy1BQjZBLTRFQ0QtQkU4Ny0xNDRFOEFDNjU1RjQ</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>$58.79</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1TkRGaFlUbGhPQzAzT0RGbExUUTBNekF0WVdJd1ppMWxaVGd3WXpjM1pqQmtOMk1RQVE9PRAIGiQ2OUZBOUVEMS05NDE5LTRDNEMtQTVBOS00RkZGM0FBQ0FCMTU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTVRrM01ESmtPUzB3WTJGa0xUUTJZalF0T0RFMU5DMWlZak0wWlRrNU16RTBaamNRQVE9PRAIGiQxQjA3QTNDRi0xREVCLTQzQ0QtOUI4MS1BQ0Y2MDdENjk3MEE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWlRNeU5qaGlOeTB4WWpJd0xUUXhNV0l0WVdNeE1TMHpZV1psWXpVek1UZ3dORFFRQVE9PRAIGiRFNUY3NDIzOS03RTBCLTRERUEtQUIyNy01MkIyRDVFMjYzQ0Q</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTmpFNE5qSXdaQzAzTVRnMUxUUTJNREV0WVdRNVpTMDBaR0U0WkdZelpEZzNPR0lRQVE9PRAIGiQ2MTA0RUYzMi1DOUU1LTRENkQtOTY2Qi1BMkNENzA3MzkwNjQ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWVdJMk16STJZeTFpTm1VeUxUUmpaakl0WW1NMk1TMDNZVFkzTmpJNU16SXdZV0lRQVE9PRAIGiRCNjgwNDJGNy0zRUMxLTQ3NUQtQjg4Qy1GODM0OURGMzZDQUY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TlRrMU0yTXpOQzB4TVdOakxUUTFOV010T1RnMk1TMHhOelJpTWpjeU1qVmhOekVRQVE9PRAIGiRFMkVDMzY3MS04QzgxLTRERUUtQUQ5MS00NDlDQkQ3RUI4N0E</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtWVRnMVkyVTJaUzAxWXpabExUUmpaRGN0WW1Fd01TMWhZemhoTURBNVpqUXlaRGNRQVE9PRAIGiQ2Q0U4NUJGQy00MkFDLTRCNzktOTEwMy1FQTY5NUNFQ0NCM0E</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrTURnME9XRTROeTFsTlRnMkxUUm1NRFV0WVRGa1ppMDBaRE0xT0dWbU9EY3dZekVRQVE9PRAIGiQ5RDQ1MjJDMC1DQUE3LTRDRDAtQTc4Mi1FRDRFQTdCMzQ1RjY</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,51 +505,3551 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTm1Ga1lXTXlOaTB3Tm1ReUxUUXlOR1V0T1dSak9DMW1PVGhrWkRjd056SmhZMlVRQVE9PRAIGiREOUQyRUMzRC0yQTU1LTQ2N0MtOEY5Mi0zNzQ5NkJFN0JCQkY</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTm1Ga1lXTXlOaTB3Tm1ReUxUUXlOR1V0T1dSak9DMW1PVGhrWkRjd056SmhZMlVRQVE9PRAIGiREOUQyRUMzRC0yQTU1LTQ2N0MtOEY5Mi0zNzQ5NkJFN0JCQkY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$7.34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTm1Ga1lXTXlOaTB3Tm1ReUxUUXlOR1V0T1dSak9DMW1PVGhrWkRjd056SmhZMlVRQVE9PRAIGiREOUQyRUMzRC0yQTU1LTQ2N0MtOEY5Mi0zNzQ5NkJFN0JCQkY</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>$7.34</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTm1Ga1lXTXlOaTB3Tm1ReUxUUXlOR1V0T1dSak9DMW1PVGhrWkRjd056SmhZMlVRQVE9PRAIGiREOUQyRUMzRC0yQTU1LTQ2N0MtOEY5Mi0zNzQ5NkJFN0JCQkY</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>$7.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpGbFpERmhOQzFpTUdVeExUUmhOV0l0WW1ReE9TMHdaall6TlRrNFptWmpaVFVRQVE9PRAIGiRFQTk2Qjc3Ny1BNEM0LTQ4MjYtQjBGOC0zQjA5OENCQUVGRUU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>$58.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpGbFpERmhOQzFpTUdVeExUUmhOV0l0WW1ReE9TMHdaall6TlRrNFptWmpaVFVRQVE9PRAIGiRFQTk2Qjc3Ny1BNEM0LTQ4MjYtQjBGOC0zQjA5OENCQUVGRUU</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$58.75</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpGbFpERmhOQzFpTUdVeExUUmhOV0l0WW1ReE9TMHdaall6TlRrNFptWmpaVFVRQVE9PRAIGiRFQTk2Qjc3Ny1BNEM0LTQ4MjYtQjBGOC0zQjA5OENCQUVGRUU</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$58.75</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WXpGbFpERmhOQzFpTUdVeExUUmhOV0l0WW1ReE9TMHdaall6TlRrNFptWmpaVFVRQVE9PRAIGiRFQTk2Qjc3Ny1BNEM0LTQ4MjYtQjBGOC0zQjA5OENCQUVGRUU</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>$58.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTkRjMk9ERTBNeTFqTkdZMkxUUXdPV1F0WVRZM01DMDROamMyTnpJM1pXSXlOR0lRQVE9PRAIGiRBREZFQTY3RC0zMzk4LTQ0Q0ItOTVFNS0xNkU5OTQ4RjFFNzU</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$36.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTkRjMk9ERTBNeTFqTkdZMkxUUXdPV1F0WVRZM01DMDROamMyTnpJM1pXSXlOR0lRQVE9PRAIGiRBREZFQTY3RC0zMzk4LTQ0Q0ItOTVFNS0xNkU5OTQ4RjFFNzU</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$36.72</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTkRjMk9ERTBNeTFqTkdZMkxUUXdPV1F0WVRZM01DMDROamMyTnpJM1pXSXlOR0lRQVE9PRAIGiRBREZFQTY3RC0zMzk4LTQ0Q0ItOTVFNS0xNkU5OTQ4RjFFNzU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$36.72</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTkRjMk9ERTBNeTFqTkdZMkxUUXdPV1F0WVRZM01DMDROamMyTnpJM1pXSXlOR0lRQVE9PRAIGiRBREZFQTY3RC0zMzk4LTQ0Q0ItOTVFNS0xNkU5OTQ4RjFFNzU</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>$36.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF4WlRZNU1EZ3dZeTAzWWpKakxUUXhOVE10WWpZNE9TMWxOR05oWVRneVlUWmpNMlVRQVE9PRAIGiRDQTkwRDUyRi03MTQ2LTQ3MUEtOEQ2My1FNTg0ODVENkY3ODQ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>$36.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTkdOaU9UUXpNeTFoTkRObUxUUmtObVV0WVRZM1lpMDJPRFZpT1dJNFpqQmlabUVRQVE9PRAIGiQyRTk5M0ZCNS03QjNELTRFNEUtOUMxMy0zNzlBNEI3RjZCNEY</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$32.07</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTVdWbE9USm1OUzFpT0ROa0xUUmlNMlV0WVRVMVpDMDFaV1kyT0dRM05tWTFZbVlRQVE9PRAIGiQ2QjcyQzc3NS1CMkE3LTRBNEMtOEU2Ri03QzNCNEFEODI2MkY</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>$23.13</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WVRJMVpETTRPQzB3TVRZeExUUmlaVFl0T0RnNFpDMHdNRGc1TURZeFpUUmpNV1FRQVE9PRAIGiRCOTEwRUZCOC1GRDA3LTQ5OTEtQTA3NC1FNEI5NzI2NjAyNDk</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>$16.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwT1RVNVl6SXhOQzA1WW1WaExUUXhZMlF0WWpWak55MHpOR1ZtTURaa056WTBZamtRQVE9PRAIGiQ0RDVFMEQ4Mi00QzU0LTRENzUtQTI0QS0xQkJGNkIxRjZCMDU</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$7.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTnpBNFpUTXlPUzAxWldVMUxUUXpNV1l0WVdRMU9TMW1PVEkwTlRJME5XSXdaRGdRQVE9PRAIGiQxQjVEOEIyOS1CNzEyLTREMTEtQUJDMC01OTI5RDIzMDIwNTc</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>$6.41</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTkdJMk4ySXpNaTB5T1RBMUxUUTVNVGd0WVRVeVpTMDNZakl3WmpFMk1UQTFaV1lRQVE9PRAIGiRCQjI4QkI2OC1FMTA1LTQxNzktOTc0RC1FMzlERUQ5Q0Y3RkQ</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>$4.63</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWWprMU4ySTJZUzAzTldJekxUUmhObVV0WVRnM01TMWpOMlJrWm1aak5UbGpPVGdRQVE9PRAIGiQwMjUwRDY4MC1GNERCLTRCOUYtQUM1Ri0yQjBCRjI3OUI2MzQ</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>$3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTldRd1ltSXpNQzAzTkRFd0xUUmtaVFl0T0RaaVl5MDRaRGhsWVdVeE56RXpPRGNRQVE9PRAIGiQ4NzkxNThEOS04ODA0LTREMkYtODdFNy1CNzYzRDI3NTgwQzU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$51.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5T0RCa056WXpOeTAxWlRsaExUUTVPRGN0T1RZd05pMW1ZVEUwTlRCaU56TTJPREFRQVE9PRAIGiRCNDJEMENGNC1FQjI4LTQwQkUtQjkzNy0wNjFGNjg2NUI0QUQ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>$44.90</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TXpjNE5EWTFOeTFpWmpneExUUXhPRE10T0daak1TMWhNekpoWVdaak9UVTRaRElRQVE9PRAIGiQyQjZCODM0OC04ODZGLTQwNkYtQjZGOC00Rjk5MjdEN0Q5RTI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>$32.39</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1TTJVNFptUTNPUzB4TWpNMExUUXlOall0WVdRd09DMDRabU5oWmpsbU5qQXhZMllRQVE9PRAIGiRFRDNFQTNEQy0yNDM3LTRGMEUtODA2NS01M0RFMUY0OUUxNkM</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>$23.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTXpnek56VTVaQzFpTTJVMExUUXdPRFl0WWpVNU1pMWxNekpsWlRGaFkyVmhORGdRQVE9PRAIGiRDNzI1NzY1MS01NjYxLTQ3QTEtODlDQy01Q0Y2NjNCMkMzOEY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$22.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5TjJGak9ERTRaUzB3T0RCa0xUUmpNalV0WVdGaU5TMDVaRFkyT1RVMk9EZ3pOallRQVE9PRAIGiQwMkNDQTFEMC1CNEFFLTRCQjEtQTEzOS1DNDgzRTQxRTY3QUY</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$19.24</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6WWpNMFlUQm1ZaTFqTnpneExUUXpNREl0T0RGaE1pMWhNVEkwTkdabE1XRTNaR1FRQVE9PRAIGiQwNkFGMUY1RS0zNUUwLTRDRjAtOTA5RS00OTNCQkVCODQzODA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$13.88</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsT0RZellXRm1PUzB5TmpjNExUUTRORGt0WWpkbVppMDRPVFJpWVdabVpXSXlaamNRQVE9PRAIGiRBQjQ0MTZBQS1CQkU2LTQ2MTgtQjg4OS03RDYwOUM0Q0IzQzY</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>$9.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsT1RBM05qWTFaaTB4Tmpka0xUUTRaV010WWpoaE5TMWlZelU1TUdGa01XRXhaRElRQVE9PRAIGiQxQzc0MkU1OC00N0E2LTQ3NUMtQThDNy0yMzczQTgzQjlFMzU</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$212.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWm1Rek1HUmlNUzFqWldKbExUUXdNbVF0WW1VM1lTMDFabUkyTldZeE1EaG1NamNRQVE9PRAIGiQ4RjQ4N0FCOC03MDhGLTQ3NjQtOENEQi00NTlGRjVFOThCMEU</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$186.03</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWkRJM09XTTRNaTFtWWpNM0xUUm1PVEF0T1RreVlpMHhNR0UxWVRrME1HTm1OR1lRQVE9PRAIGiRFMUQ4OTc0Qy1EOTJELTQ2MUItQTQ1NS03MEE0MUUxMzlBRTA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$134.18</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsT0RBek1EaGxNUzAzTVRKbExUUTVNV1V0WVRNMVlTMHlZakZpTm1Ga05tUTBaVFVRQVE9PRAIGiQyODdFRjYxQi05OTJELTRFNTctQjhEOC1GNTA4OTUzMkQxMDE</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>$95.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWTJKak9EQmpZeTAzWlRSa0xUUXpOMlF0T0dKbFlpMWxaakF4TURnd016ZzRaVGNRQVE9PRAIGiQyODlGOTlFNi04QkEwLTREQkMtQjVCMy04N0U5ODI5RTdGRTk</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$102.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqWVdReE1URXdOeTFtTVRsaUxUUmhOMkl0WWpkalpTMWhORFZoWlRaak5UWXdabUlRQVE9PRAIGiRERERFRTAzRS05QzJGLTQ1QjItODY3MS1ERkEzRUJDRjkwQUU</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$89.81</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTWpObU1qQXpOQzAxWlRKaUxUUmxaVGt0WVRVMFpDMHhPVGM0WWpGaVkyTXhZekVRQVE9PRAIGiQ3Qjc2OEM1QS1EQTZGLTQ1RkUtOEM2Qi04NDJGNEMwNkI1N0Q</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$64.78</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoT0RNeFlqVm1aQzAwWVdVeExUUXhPV1V0T0RSaFlpMHdOalprT1RZeU16aGpaVE1RQVE9PRAIGiRFNDJGQkRCQi04MTU1LTQzQTgtQTZDNy0wQUJBNEM4N0I4OTI</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>$46.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTlRsaU1XTmhOQzAyWVRsakxUUTJaR0V0WVRKaFlpMHlaR1k1TlROaFkyVXdOV0lRQVE9PRAIGiQ4NzUwRjQwRi1EODE4LTQ0RjUtOUM5Ny00RTc2QThEOEEzNTU</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$115.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTTJZM09UVmtNaTFsTm1Sa0xUUXpOV0V0WWpRNFpDMWpOekkwWVRJMU5XVmhZelFRQVE9PRAIGiRCQUZGMTM0RC01MjQwLTQxOTktODJGMy05OTM3N0FGNTBEM0M</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$92.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6WW1VME9Ea3haaTAzTnpNekxUUTNZVGd0WVRCbE5pMDNPR1UwWlRZd01EY3pNMlVRQVE9PRAIGiRFRDhFQzA0My05QTdBLTREQkQtOUY4Ni02MTRCMjg5MzhFRkI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>$71.58</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTmpFMU5EQTNZUzAxTkdabExUUXpOVE10WVRGaU1DMDBaREZsWmprellqRm1PVGtRQVE9PRAIGiQ0NEEzQTI5RS01N0M5LTQ2QzktQjMyOC1GMDU3NTY1OTdCMTA</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>$51.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTlRrek5ERmxaQzA1TnpJeUxUUm1ZMk10T0dNNE1pMHpNamMzWXpkak9URXdNR0VRQVE9PRAIGiQzNjA0RjBDRS03NzhBLTRDNkMtQjRFQy1DRUJFQjkwRjhDNzE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$40.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWkdNeU16QXdPQzFrTnpsakxUUm1NR1l0WVRGaFlTMDJZV0prWm1Nek16SmtPV01RQVE9PRAIGiRDMUI4NkRDNS00RThELTRDMTItQjVEQi0yQ0JCNEQ5NkVDREY</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>$32.47</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTkdZMlpUUmtZaTFtWkRVMUxUUm1ObU10WVdOak9TMDNOV0ZtWkdaaVpETmtZVGdRQVE9PRAIGiQxRkE2QTMyMy0xMTg2LTREOTAtOUJBNi1FOUVBMDBFRTIzMkY</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>$25.65</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF4WTJJeU1tWXlZeTFqTkRoaExUUTJOMk10T0dOak9TMWlORGt6TlRrek5UZzVNRFlRQVE9PRAIGiQxMEEwQTg2Ni02OUZELTQwODEtOTk4My01MzI0MTkxQ0Q2RDg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>$18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpT1dJeU9EY3hOUzAzTlRJekxUUmtZVGN0WVdSaFl5MW1OMkk1WXpRMk5qTXdOREVRQVE9PRAIGiREQkNDREQ3Ri01ODc3LTREMDYtQTFDNy05NUE5MjRBQThFM0E</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$57.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3TTJFM09ESXlZUzFqWTJRd0xUUTBZak10WVdFME5DMWxOV1V4TlRBMlkyUmxZaklRQVE9PRAIGiRCRDJCOEQ0Ri03ODcyLTQwQjctQTk1Ny05MUJCRDRGQzBBMjE</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>$46.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTnpKa09EZ3lNUzAzT0RFekxUUmtZbUl0T0RZNVlTMWlNamd5TlRZM05UVXpZV0lRQVE9PRAIGiQwQUNEMTYzRC00ODhGLTQ1RjgtOTJBOC1BQkY3NkI4ODg0QjY</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>$35.79</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTXprelpEWTVOUzAzWWpRd0xUUmxaRFF0T0RWbFl5MWlNV1ZqT1RsbE5qazFNekVRQVE9PRAIGiREQzIyNDcwMS0zRDJBLTQ2MjQtQUQzQy1DNTM4Q0E2OEMzNDc</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>$25.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTlRrMU9EZzNPUzAyTkRNd0xUUTJNbVl0T1RObVppMDBOVGczTlRBeFl6Y3laV1FRQVE9PRAIGiRFMTg1NTgzNy0xM0IzLTQ5ODgtQTg1Ri0yOTY4QkY2RTJBNEM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$122.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWm1NeE4yRXlPUzA1WmpjNExUUTNNRGt0T1dVd1l5MDFPVE0wTW1ZNU5EWmxPV1VRQVE9PRAIGiQ3NTczQTM5My0wMzMzLTQ3NzgtOUZERi1BRTU2NDVGMzkxN0Q</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>$97.42</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0TkRnMVpqTmpOeTA1TmprM0xUUTBaVGd0T1RFNU5TMDFNbVZqTkRZM01XWmxZbUVRQVE9PRAIGiQ0QUQ1OUU4RC0zREFELTRFRTQtOTc1QS03QzM4Q0UwOTcyRjY</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>$76.94</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTUdJd1l6TmtNeTFqT0RFM0xUUTVOV0V0T1RSaFlpMHdNV0prT0RObU5tSmhZVFVRQVE9PRAIGiQ4MjFDNDJERC1BNjI2LTQ5RTUtODI2Qy1FRUU3NDEyOEMyODQ</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>$54.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3TURReU9EZ3hZeTA0TURWakxUUm1Zek10WW1SaU15MWxZVGhqWlRGa01URTBOV01RQVE9PRAIGiQ4NDI0OUQ4Qy1ERjgwLTQxMzItQkQ5OC1FNUREODNCMTg0MDc</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$57.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTXpNd05qWTNNaTFoWm1WakxUUTJOemt0T1dRNE1pMDJPVE5qWVRKbFpUUXlPRE1RQVE9PRAIGiRENTNGRjEyMy1GRkY4LTRDRDgtQjdGMy05MEY0QjJGREE2QjM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>$46.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTUdZNU9ETXhNUzAwTURBMkxUUmpNemt0T0dFek15MWpNRFEyWldOa01XRTVaRElRQVE9PRAIGiQwRUI0MTVGNC03NENBLTQ1NEQtOUY2MC04NkRFNzg2OTZCRUU</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>$35.79</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1WkRBNFlUbGlNUzFqWVRVMExUUTVaakl0T1RNellpMDVaV1k0TXpreFpqRmlNemNRQVE9PRAIGiQ1N0I4MTY0NC04RDJDLTRGMTctOEUxRi0yOEQ0MTkzMkI1OTI</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>$25.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpBME1USTBZUzFtWldNekxUUTVNVGt0WWpnd01TMDVNekZsTm1ZeVlUTmxNV1VRQVE9PRAIGiQwNDVDMkFCMC0wRjgxLTQzMzgtQTFDNC1BMzUyM0VGNTdEQ0I</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$40.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WkRBMU56UTBNUzB6TUdaaExUUTVORFl0WWpJelppMWxaV000TXpsa01HUmtNMlFRQVE9PRAIGiRBMTcyRUU2OS05M0VBLTRDMjktOEEzRS05QzREMEEwM0Q5QjI</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>$32.47</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WW1NeFpUQTRaaTAyWm1RMUxUUmlaV1V0WWpnellTMDFNR1l5WVRSaE1qRmlNVGtRQVE9PRAIGiQ5QTlBM0Q3MC1EMEQ1LTQ4Q0YtOTJGQy04NERCNjhCQzdDRkM</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>$25.65</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTTJJMVpXSXdPQzFtTVdWaUxUUXpOek10WVRrNU1DMWlZelV5WkdOa05HSmpZVFFRQVE9PRAIGiRDMEFBNUU2Ni1ENEQyLTRCMTctQUVBOC0yMzREMEE2RDY5RkU</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>$18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWVRWa09EUmxPQzB3TXpoaExUUTBNR1F0WVdJNU5DMDVZV0l3WlRnMk1ERTVPVEFRQVE9PRAIGiQyOUQ4QjQyMC0wOTMwLTREOUYtQTBGRS1GNjI3M0I2RTdCQTA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>$3,575.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqT1RneU5XRTFZaTFpWVdReUxUUmlaVFV0WVRrNU5TMWtaalV5T0RFMllqUmlZV1FRQVE9PRAIGiRERDVDOUE0My01OTUwLTQxNzAtQkQxOS1GOUE3Q0I5Q0Y2ODI</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>$2,851.90</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTkRVM1ptSTFaaTFpWVdGbExUUXdZbVF0T1RBelppMDJZelEyWVRNek9EUXdZalVRQVE9PRAIGiRDQkVEOTgyRS0zNjdDLTQyRDEtQkY4Ny0zQTgxOTU1NTMyMTE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>$2,219.11</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWlRVeU9UWmxOeTB5WlRrNExUUXpNekl0WVdNMFpTMHlPRFkwT0dJME5XVmxZVEVRQVE9PRAIGiRCRDU3RjQwQS0xRDExLTQ3RTktQkE2Ni1BREE0MUQzNkYzQkY</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>$1,606.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqT1RWalptTmlaQzFtWmpFM0xUUmtNbVl0T0RVNU9DMWpNR0l5Tm1VeU1UTTBZelFRQVE9PRAIGiRGOThFM0YwOS02NzA1LTQ4RDAtQjczMC0yNTM4MzQzRTk0QjQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>$2,883.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpTkdSalpXWTJOaTFtWXpCaExUUXpabUl0T0dKak1TMW1ZMk0xTkRobU5tTXhZemNRQVE9PRAIGiQ1RkE3RDBGRC1GOUQ5LTQwRDctQUVFRC04RTkyOEJCRkIzRTg</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>$2,299.92</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExWXpSak5UWTFZeTFsTnpOaUxUUXlOVFV0WVdFeU55MHdObVl5WkdGalpXSmhORFFRQVE9PRAIGiRBRTYxNTQ5OC0xMEU1LTRCRTktOUY4Ni03MUVFRjMzMThBRjY</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>$1,789.60</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoT0dWaE9XVXdOUzFtWWpnMkxUUm1Zamd0WVRWbE9DMDVNemc0TnpRMU9UTTNabUVRQVE9PRAIGiQ1MzEwRjVGNS05REE3LTQzNDMtQTFDMS1EOTcyNzBCNzM3MTQ</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>$1,295.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTm1FNU9HVTBOeTFtWVRRMExUUmpPVFV0WVRKa09DMDVOVFk1WlRFeE16VTVZVFFRQVE9PRAIGiQwNkYxQTBBQy04Q0QzLTRDMUItQjc4Qi1CM0FGQjBEMUQxRjU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>$40.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WVdGaE5EVXhNUzB4TnprMUxUUTVabUl0T1RSa1lTMDVaall4Wm1SaE1EUm1OMkVRQVE9PRAIGiQ2NjJDNzUwNy0wN0NELTQwN0QtQUE3Ri02RkUyMDAxM0M3NTU</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>$32.47</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWlRJeU5qUXhPUzFqTldJekxUUTFabU10T0RkbE55MHpZMlpoTkdVME1ERTJabVlRQVE9PRAIGiRFNzA4QjVBMi1GNDg2LTQ4ODQtOTMwOC0zMkZCMDgzREI0NjA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>$25.65</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1TkRRMlpEUmpaUzFqWWpJNExUUTJZVFF0T1RoaE1TMDRNRGt5WlRBM09EaGpPREFRQVE9PRAIGiQ3OTU1MEQ5QS02OTQxLTQ2OUUtQkJBNC1EMzQ4NkQyQUNEMjY</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>$18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTWpVMk5UazVPUzB5WkRVekxUUmpZamN0WWpKbVpTMDBNR0ptWldRME0yWXlPRFFRQVE9PRAIGiRBQkMwM0Q2MS1EMEUwLTQ1MkEtQkU5QS01QUM4QzBBMzAyOEQ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>$81.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3TVRNMVlUSmhOUzFoTldWbUxUUmtNVGN0WVRJMFlpMDVPRE5sWlRCbE1qUmlNelFRQVE9PRAIGiQ5MzY5Mjc5Qi05MDVFLTQyQjUtODg5RS1GODkzOUIzQkE0OTA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>$64.95</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWXpCak0yVTFOQzFoTURBMUxUUTBNak10T0RZMk1DMWhabVF3WTJRNFlUTTNNalFRQVE9PRAIGiRFNDMzQ0RENC1GQTRELTQzREItODlDMy1EN0NGOUU0MjFCODY</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>$51.30</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWVdKbFltRXhNUzFoT0RJd0xUUXhNalV0WWpoallTMDVOREV3WVRnd01EZ3pNRGNRQVE9PRAIGiRGMEVBMzEyNC00NDIzLTQzNUQtODA3Ri1EMUQ4MDY5QTFCMTA</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>$36.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsTmpjNU9UZzFPUzB4TXpkaUxUUTNZell0WVRKaU55MWpaV0ZpTmpoak1tWTBZVFFRQVE9PRAIGiRENEIzMzExQi1ERDI0LTQ5MTQtOTdEMi1BNEEyMkM0MzdGODQ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>$81.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF4TVRVelpUSTROaTB5TlRGbUxUUmhPREF0T1RKaFppMHhZVGxoWldNeU1EVTBNV0VRQVE9PRAIGiQ0NzhCMkMzQi0yRDRDLTRGMzEtQjdGQS0zNjg2MkFFMzc0NDM</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>$64.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTlRRME1HUTVNaTB3TldJNExUUXdNREF0T1dFNU5DMDFOelF5WldRMU1qQmxOREFRQVE9PRAIGiQ3RkZBN0U3RS1CNEY4LTRGQTEtOUY2RS0xNjM1MzNFMERBRkQ</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>$51.30</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWldNNVpHRTFPUzA0T1dRMUxUUmpOREF0WVdSbU9DMDFabUl6WVRobVlUWm1OemdRQVE9PRAIGiQzNUI1QTA3NC0zQjE0LTQ4RTQtQjRGMi1CNzM4NzJGQzVBOUQ</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>$36.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3TWpnMU5UazJOaTB6TkRBNUxUUTBOMll0T1RkaU5DMDFOekUzTkRGak56YzBZemNRQVE9PRAIGiQyNUUyQkEyMy0yMDEyLTQyQTYtODgzRi0yQzJBQzQ4RDEyNEI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>$2,767.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTnprd09UVmxOQzAyTVRKakxUUmhaRE10WWpRek15MWtOREExT1dWallXUmhaR1lRQVE9PRAIGiQ2OUREOTc5Ny0wNURDLTQ0MTctQTdCRC1EMzBFQTk5RkIzNTY</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>$2,207.92</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3Tm1FNU5qSm1NeTFtWW1FMUxUUXhNekV0T1RZMU15MHhNbVl6WmpVME9UYzJNVEVRQVE9PRAIGiQwMThEQjY3My0yQTVFLTREM0ItOTg3NC0xRDY4NDY1MTA0NDA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>$1,718.02</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTjJJek1UaG1OeTAwTUdRNExUUXhOVGN0WVRabE9DMWlNR0ppWTJVMFlUTTBNR1VRQVE9PRAIGiQ5N0IyNjQ2OC04RkIwLTRDNUUtQTRCMy05NURBMkI0RTE4NjM</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>$1,243.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF4WVRFNE9EbGxNaTFqWWpZNExUUmtPVFF0WVdJeU1pMHdPVGcyWXpSbU5EaGxNbU1RQVE9PRAIGiRGNkUxNzY0Mi0zQTZCLTQ4NDQtQkE5QS0yQTBDQTIzNjEwQTE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>$2,198.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqWkRJeU9HWXpZeTA1Wm1VMkxUUmlaamN0T1RrMU1DMWlNVGhtTXpSbFlUZzFOMlFRQVE9PRAIGiQyQTJDRTU5Qi1CNzM2LTQwREQtQkQwOS1BODQyQjlDMkI0MEM</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>$1,753.58</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5T1dabVlqRXlOQzFsWkRneUxUUmxNVGt0T1Rrek1pMWpOMkkyTW1RMll6TXhNRGtRQVE9PRAIGiRDODcyOEEwNy01QjJELTQ1MzItOTNBNi0zN0M0OEQwMzZDMkI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>$1,384.98</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExT1RnMFkyVXlNaTAzT1RFekxUUTROelF0WWpnNU9TMHhOMkkxT1RVME9XTXdaalVRQVE9PRAIGiRDNThBMTZENi00QzEyLTQ2QTQtQjlBMy0xRkEwQzlDRjk4NDk</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>$989.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>46.18</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>general purpose</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTVRrM01ESmtPUzB3WTJGa0xUUTJZalF0T0RFMU5DMWlZak0wWlRrNU16RTBaamNRQVE9PRAIGiQxQjA3QTNDRi0xREVCLTQzQ0QtOUI4MS1BQ0Y2MDdENjk3MEE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$41.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTmpFNE5qSXdaQzAzTVRnMUxUUTJNREV0WVdRNVpTMDBaR0U0WkdZelpEZzNPR0lRQVE9PRAIGiQ2MTA0RUYzMi1DOUU1LTRENkQtOTY2Qi1BMkNENzA3MzkwNjQ</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$29.15</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TlRrMU0yTXpOQzB4TVdOakxUUTFOV010T1RnMk1TMHhOelJpTWpjeU1qVmhOekVRQVE9PRAIGiRFMkVDMzY3MS04QzgxLTRERUUtQUQ5MS00NDlDQkQ3RUI4N0E</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$26.23</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrTURnME9XRTROeTFsTlRnMkxUUm1NRFV0WVRGa1ppMDBaRE0xT0dWbU9EY3dZekVRQVE9PRAIGiQ5RDQ1MjJDMC1DQUE3LTRDRDAtQTc4Mi1FRDRFQTdCMzQ1RjY</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$18.74</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Paid: Red Hat Enterprise Linux</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Paid: Windows Server</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Paid: Windows Server</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Error</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTVdaaU5ESmtaQzAwWW1GaUxUUXdPR1F0WWpFNFpTMWpObVZsTURjMlpEWTJNREVRQVE9PRAIGiRDMkE1OTZDNC03NDc1LTRFRjUtQjJFRi1DQjFFQzI3QjI0MUY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTmpGbE5ESTJOUzFtTldFMkxUUmlPRFF0WVRFM015MWlNek0yTkRkbFlqa3lOVFVRQVE9PRAIGiQ4RTA0MTZDQy05NjFDLTRCRjQtQTA1Qy02RjFCNUFEQzM5MEE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1TWpkak5XRXpNeTFqTXpjekxUUmxPVFV0T1RRNFlTMWxaVE5sWVRJM01HWTRPVFlRQVE9PRAIGiQ5NTlCNUE3Qy04QjlDLTRBRTctQjFBQi02NkFFMkVENzNCMDY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,22 +534,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1WldSaFlqTXhOQzFoT0RJekxUUmlNREV0WVRZME1pMDVabUZoTkRJMU1ETmlORFlRQVE9PRAIGiQzMkExODQ2RS04NEMzLTQyRTMtODNBNS05NTYxRUFCNzA3ODA</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$9.25</t>
+          <t>$12.53</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwTlRreU1UazNaQzB5WkdJd0xUUTJZVFF0T0RJek1DMWxOelV6WVRJMFlUQTJOekVRQVE9PRAIGiQ3QzdCN0MxMy1DMzcwLTRFMzUtQTAwMy00Qzk5QjM3QkIyRDk</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$6.61</t>
+          <t>$12.53</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTWpCak5tSTNPUzFoWXpReUxUUXhPREF0T0RBME9TMWhPR0U1Wm1SbU9EZzJZallRQVE9PRAIGiRBRkE4RTA5RC0wRTcyLTQ2ODktODA5RC02MDM5NTFEMDFBQjE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWm1VME1EUTRaUzFtTVdGakxUUXdNRGd0WVdFek5TMW1OVEF6T1dJNE5HSmtZMklRQVE9PRAIGiREMkM2QUM1MC1DOUJBLTQ2ODItOTlBQS01MTZEQ0M2NzAwQTg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,32 +582,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTWpCak5tSTNPUzFoWXpReUxUUXhPREF0T0RBME9TMWhPR0U1Wm1SbU9EZzJZallRQVE9PRAIGiRBRkE4RTA5RC0wRTcyLTQ2ODktODA5RC02MDM5NTFEMDFBQjE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$6.41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTWpCak5tSTNPUzFoWXpReUxUUXhPREF0T0RBME9TMWhPR0U1Wm1SbU9EZzJZallRQVE9PRAIGiRBRkE4RTA5RC0wRTcyLTQ2ODktODA5RC02MDM5NTFEMDFBQjE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$6.41</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqTWpCak5tSTNPUzFoWXpReUxUUXhPREF0T0RBME9TMWhPR0U1Wm1SbU9EZzJZallRQVE9PRAIGiRBRkE4RTA5RC0wRTcyLTQ2ODktODA5RC02MDM5NTFEMDFBQjE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$6.41</t>
         </is>
       </c>
     </row>
@@ -630,42 +630,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWVdVMU5qRXlZUzFsWkROakxUUmxaV0l0T0RNMk5TMDFNamt5WTJZMlpUaGhaakFRQVE9PRAIGiQ5REU5OTQ4Ri1GOTVBLTQzQUEtOTFBQS0yRkFCNjE0NDlFRjM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WkRkaU16RmpOaTFpWkRneUxUUXdPV1l0WVRoa01pMWpOMk5oWXpkak1tUTNNRFFRQVE9PRAIGiQyNkM0NzNGRC0zNDIzLTRGNUEtQTYyRS1DN0U1MjI4MkUyRUQ</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$329.51</t>
+          <t>$395.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3TW1ZMFl6RTBaQzFsTlRKa0xUUXdOekF0T0RneE5DMHhPRGd6WVdGbE5qVXlZV1FRQVE9PRAIGiRBQjg0NTkwNi0xMzQxLTQ2NkEtOUQwMi00NEVCMjc4OUNGRTk</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$262.85</t>
+          <t>$315.42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsT0RFNVlqWmxNUzB3WkRZMUxUUmtZall0T0RFMVlTMWlaV1E1WWpKaVl6UXdOekFRQVE9PRAIGiQzQTcxNjI0MS04MjZELTQ1Q0MtQUQ4My0zQUUyRDdCNjA1MDk</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$207.60</t>
+          <t>$315.42</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3T0dObE9EVmtOaTFtTnprMUxUUmpZamN0WVRSa05DMWpZakV3Wm1abE1tRTRNemNRQVE9PRAIGiQ1RDU3MDZDQy0wRDUwLTRCNjQtQjc1My01REZFNDQ3QTlGQTc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$148.29</t>
+          <t>$315.42</t>
         </is>
       </c>
     </row>
@@ -688,42 +688,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TkRWbFptSTFPQzA1TldKaUxUUXhOV1V0WWpsaVlTMDVNREV3TURaa05UQTVNVFVRQVE9PRAIGiQxRDlBN0EwMy0xMzE1LTQ5RkUtQkY3NC0xMjJCRTk5ODQ0NzE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>$55.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>$52.05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>$52.05</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>$52.05</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExT0RVNU0ySXdOUzFoT0RJeUxUUmxOR0l0WW1NMVpTMHhOalkzTUdZd1lUYzRPR0lRQVE9PRAIGiQ4MUY1RTI4MC00MDUxLTQ1MkMtQjIwNS04ODMzQjJGRkFEQUQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqT1RoaVlUVm1aaTAzTkdJM0xUUmhaRGN0WWpjMllTMDNNVEUyTURBeU9UazBOR01RQVE9PRAIGiQ4MUE4RUE4My1DRTEwLTQ3RDgtQTgwNy0wQzFGRTQzQjgyNzc</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF4TldFMFpHWTVOeTFpTkRBeUxUUTFZMlF0T1RsbU1DMHdPRFkyTkdObU16VmpNR0lRQVE9PRAIGiRBQzM2MEMzQi0wNUM4LTQ2QzItODEyMy1DMzc2NUNEOUVCNTY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6T1RKbU1qa3daQzB5WWpSaUxUUmpNRE10WWpkbE1DMWxZelZtTnpNMU9XWTJOalVRQVE9PRAIGiQ2QzNEMERCQy0zNUNFLTQ1NUMtODA2Ni03RThGQTBGOUQ1NkY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$18.51</t>
+          <t>$24.76</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WW1VNE1URXhaQzAyTnpKakxUUXpObVl0WVRSbU5DMWpaamN6WWpKaVpqTmtOamNRQVE9PRAIGiQ5NTYxOUY5NC04MUJBLTQ0NDMtOEJBOC02N0YyMzU0RTFCQjg</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>$13.22</t>
+          <t>$24.76</t>
         </is>
       </c>
     </row>
@@ -804,42 +804,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTW1NMVlqazJOUzAxTVRVeExUUmlaVGd0T1RZd05DMDJZemhpTUdabU5USXpOVFlRQVE9PRAIGiQzNTYzN0RBMS02REYyLTRFRDYtQTc2NS03NjAyMEZENEI4RkY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTnpZMk5USmxZUzB4WkRNekxUUTFNbUV0WWpFNE5TMWpNREZqWVRBd05EVXlabVlRQVE9PRAIGiQ1NjJFRkUyRS1CQUIwLTQ0QTYtQkJGQi04NzhCOTJFREI2Qjg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$0.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTW1NMVlqazJOUzAxTVRVeExUUmlaVGd0T1RZd05DMDJZemhpTUdabU5USXpOVFlRQVE9PRAIGiQzNTYzN0RBMS02REYyLTRFRDYtQTc2NS03NjAyMEZENEI4RkY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$0.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTW1NMVlqazJOUzAxTVRVeExUUmlaVGd0T1RZd05DMDJZemhpTUdabU5USXpOVFlRQVE9PRAIGiQzNTYzN0RBMS02REYyLTRFRDYtQTc2NS03NjAyMEZENEI4RkY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$0.38</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTW1NMVlqazJOUzAxTVRVeExUUmlaVGd0T1RZd05DMDJZemhpTUdabU5USXpOVFlRQVE9PRAIGiQzNTYzN0RBMS02REYyLTRFRDYtQTc2NS03NjAyMEZENEI4RkY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$0.38</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -514,42 +514,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTmpGbE5ESTJOUzFtTldFMkxUUmlPRFF0WVRFM015MWlNek0yTkRkbFlqa3lOVFVRQVE9PRAIGiQ4RTA0MTZDQy05NjFDLTRCRjQtQTA1Qy02RjFCNUFEQzM5MEE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJtTWpCbU9UUmtPUzB4T0RjMUxUUmpOek10T0dRMU1TMHhaalJtWW1ZNE56ZG1ZbVVRQVE9PRAIGiQ2OUFBODA2MS04MUQ5LTQ2N0EtOUFFNi04ODc4MjkwMTgzNEY</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$14.69</t>
+          <t>$261.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWmpFM1pHRXlNaTB6T0Rsa0xUUTNOMlV0T1RJNE1pMWtZbVEzTURJd056YzNNRGtRQVE9PRAIGiQxRTkxMUM1QS03ODExLTQ3OUQtQjJDRC0yNkZFRDhBMjAxOTg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$12.53</t>
+          <t>$182.96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEwWW1aaU16UTFPUzAwTURkbUxUUTVaak10WVRVM1pTMWlNbVV6TXpnM05HRmhOek1RQVE9PRAIGiQwNjQ1NzQ5Ni00NTFCLTRCNkMtOTEwRS1EOTdBMERGOUI3Rjg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$12.53</t>
+          <t>$160.09</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TXpSaU5Ea3dNUzFqTW1JNUxUUTFZakF0WVdZeU9DMDNNV014WmpObU5HWmxPVGNRQVE9PRAIGiQxNDQ0RjYwQy04OUU0LTQwNUItOUUzOS0wQUQ0Q0MyQjJCMDc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6WXprMVlXTTNNQzA1WmpNMExUUmtOamd0WVRsbE9DMDFPVE5qWVRrNU5XWTRZVGtRQVE9PRAIGiQ4M0U5NkFGNi04MTE0LTQ3QzgtOUQwMy01N0E2QjcyQkJDM0M</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$12.53</t>
+          <t>$115.31</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -572,42 +572,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyWm1VME1EUTRaUzFtTVdGakxUUXdNRGd0WVdFek5TMW1OVEF6T1dJNE5HSmtZMklRQVE9PRAIGiREMkM2QUM1MC1DOUJBLTQ2ODItOTlBQS01MTZEQ0M2NzAwQTg</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0WkRnMFlUWmxaQzFoTkRsakxUUXdPRGd0T0Raa015MDNZVFk0WXpSbVpUQXhOVFlRQVE9PRAIGiQwNUE3ODAyOC00NkRGLTQ1QzMtQkU4QS00M0U3OTI0Mzk2NEE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$7.34</t>
+          <t>$235.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0WkRnMFlUWmxaQzFoTkRsakxUUXdPRGd0T0Raa015MDNZVFk0WXpSbVpUQXhOVFlRQVE9PRAIGiQwNUE3ODAyOC00NkRGLTQ1QzMtQkU4QS00M0U3OTI0Mzk2NEE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$6.41</t>
+          <t>$235.01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTlRZMFpEQmtaaTB5WlRVNExUUmhZMlV0WVRJMFlpMDBPRGd3TWprNVpHTXdOV1FRQVE9PRAIGiREODMzRDhDRi0zNzZCLTRCQTMtODU5Ni02MUQ1RDAwMUQyMzc</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$6.41</t>
+          <t>$148.06</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTmpCaE0yWm1ZeTA1WVRKaExUUTNPVEF0T1Rjek15MWhaVE5tWW1abE0yTXdZak1RQVE9PRAIGiQ0MzQzMEVBMi0xQ0Q0LTQwOUMtODA0RC1BQzRGQjgzOTMyRUY</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TUdOaE5XVTNaaTB4T0dFd0xUUTVaRFF0WVdFM01TMDJaR1JoTVdKak9UTm1ZallRQVE9PRAIGiQ5OEMyRTNGQi1GM0U4LTQ4QjEtQkQ2MC1ENTVFNjNFRDM0OEI</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$6.41</t>
+          <t>$105.76</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -630,42 +630,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WkRkaU16RmpOaTFpWkRneUxUUXdPV1l0WVRoa01pMWpOMk5oWXpkak1tUTNNRFFRQVE9PRAIGiQyNkM0NzNGRC0zNDIzLTRGNUEtQTYyRS1DN0U1MjI4MkUyRUQ</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTWpJeU5HVm1aQzFpWVRGbExUUTNaamd0WVRjMk1pMHhZMll5TmpsaFptRXhNRGNRQVE9PRAIGiRBNjBGQTlBMS1DMkQzLTQ0OUItOUYyRS03MTU4Njk1MjhCOTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$395.41</t>
+          <t>$162.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJsWWpWaU5tTmxZaTB3TW1RNExUUTRZV0l0WVRneU5DMHlOR05oWmpRME5EUm1ZVFFRQVE9PRAIGiQ2QjlERDJFNS1FQkJELTREMjUtODk0Ri01NTM2OTQwRDZBQjM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$315.42</t>
+          <t>$129.89</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TURBMVl6QmtOaTFsWVRBNUxUUTFaRGN0WVdRMk5TMDVZV00xT0dZNE9HVmhaVFFRQVE9PRAIGiRGM0Y2QUU2QS0zRTMxLTRCQ0EtQjUyNC05NTBGMUZDREJGQjg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$315.42</t>
+          <t>$102.59</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVExTW1RMllXRmlNaTB5Wm1RMExUUXdaRGt0T1dReE1DMHpOVGhtTjJGbE5UY3lZVE1RQVE9PRAIGiRFNkYxNTNBRS0wNjIxLTQyODgtQkU1Qi0wMjhGNkE5RDg4RjM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWkRVME1USTBaaTAwTlRFMkxUUXlaRFl0WVdZd1pDMDJZemM0TmpGaU5UWmxOalFRQVE9PRAIGiRCMzYyQTRGMC01OERDLTQyQTItOUI2OC1DQTcxMDVENTlBQzU</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$315.42</t>
+          <t>$73.28</t>
         </is>
       </c>
     </row>
@@ -688,42 +688,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TkRWbFptSTFPQzA1TldKaUxUUXhOV1V0WWpsaVlTMDVNREV3TURaa05UQTVNVFVRQVE9PRAIGiQxRDlBN0EwMy0xMzE1LTQ5RkUtQkY3NC0xMjJCRTk5ODQ0NzE</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWkRoa01HVmxNeTB3T0RoaUxUUmtZV1V0WVRVMllpMHpZak01WVRobE16VmlPV1VRQVE9PRAIGiRGQ0YxMDc4OC1BRTlBLTQwODAtQjhGMi02Njc5NjE3RTA4RjA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$55.97</t>
+          <t>$162.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5TURJeVpqUXpNUzB6WkdGa0xUUmpaRFV0T1RJeE9DMHdOR001WmpneVkyWmtPVElRQVE9PRAIGiQ2QTA1MTY5MS00RTk5LTRCQUMtODg2Qi1BNzU3NTNFMTU0OTI</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$52.05</t>
+          <t>$129.89</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6TVROa1lXWTBNaTFsTTJOaUxUUTVPRGd0T1RJMFlpMWpPREUxWkdVeE1qaG1PV0lRQVE9PRAIGiQxODlGOUE2RC1BODBBLTQwRUMtQjdFOC05OEYzQzIwOTdBMEU</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$52.05</t>
+          <t>$102.59</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTTJNNU56STFaUzFoWVdSakxUUmpNVFV0WW1RMk5pMHdOMk5rT1RJek16QmhNRGdRQVE9PRAIGiQ5MjZBNTFBOC0zOTM5LTRFRkQtQjQxRC0wNzBCREUzNjlEN0U</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5TURnelpUSmlPQzAyTVRBNUxUUTJaVFV0WVdZek1DMDVPVE5sT1dZd1lqZzNNREFRQVE9PRAIGiRFMzJDN0Y0My0zM0E5LTRGNzUtODc5OS04MkUxOUIxQ0MyM0Q</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>$52.05</t>
+          <t>$73.28</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+          <t>Paid: Windows Server</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -746,42 +746,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJqT1RoaVlUVm1aaTAzTkdJM0xUUmhaRGN0WWpjMllTMDNNVEUyTURBeU9UazBOR01RQVE9PRAIGiQ4MUE4RUE4My1DRTEwLTQ3RDgtQTgwNy0wQzFGRTQzQjgyNzc</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0T0RFNU9EUmhPUzFpTm1JMExUUTNNVE10WWpobU5pMWtaREV3TUdKaU56TmtaVFFRQVE9PRAIGiQzQzJCOUFDQi0yQ0Y4LTRBRjUtQTMyMi01QTM5MTNFMUFEOTc</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$29.38</t>
+          <t>$125.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0T0RFNU9EUmhPUzFpTm1JMExUUTNNVE10WWpobU5pMWtaREV3TUdKaU56TmtaVFFRQVE9PRAIGiQzQzJCOUFDQi0yQ0Y4LTRBRjUtQTMyMi01QTM5MTNFMUFEOTc</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$24.76</t>
+          <t>$125.91</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoTkRnMU1HTXpaQzFtWm1NMUxUUXpNbUV0T1RoaE15MWhNR05tTUdGbVpEWmlPV01RQVE9PRAIGiQ5MDI4QzhDMS1CRTJBLTQxNTQtOTA2NS01MUI5MjI1NjY0RDU</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$24.76</t>
+          <t>$104.17</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWWpZMlpEYzNOQzFrTUdGaExUUTJZekl0WWpFMVl5MDROMkptTm1abU1XTmhOamdRQVE9PRAIGiREMjVGMTQ3NC1GRDhFLTREOTAtQkZDRC01MjREQURBQjFBOEM</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE0WXpaaU1HWXdPUzAzWm1RMExUUXhNamN0T0dGbE1pMWpZV1ZsTXpJeE5ETTNORFVRQVE9PRAIGiRGOTIxMzBDMi1EODkwLTQxNzktODg0NC05NDAxNDNDMjk4Mjk</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>$24.76</t>
+          <t>$93.60</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+          <t>Paid: Windows Server</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -804,42 +804,274 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTnpZMk5USmxZUzB4WkRNekxUUTFNbUV0WWpFNE5TMWpNREZqWVRBd05EVXlabVlRQVE9PRAIGiQ1NjJFRkUyRS1CQUIwLTQ0QTYtQkJGQi04NzhCOTJFREI2Qjg</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWldOa05qQmhaQzAyTXpVeExUUTNNRGt0T1dFM01TMDJZVGhoTVdJNE5URXdNMllRQVE9PRAIGiRFRUU2QUZCMi1FNEZDLTQ2N0UtQjRERS0zMkFEQkU1RkUwNzM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$0.10</t>
+          <t>$11.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWldOa05qQmhaQzAyTXpVeExUUTNNRGt0T1dFM01TMDJZVGhoTVdJNE5URXdNMllRQVE9PRAIGiRFRUU2QUZCMi1FNEZDLTQ2N0UtQjRERS0zMkFEQkU1RkUwNzM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$11.73</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWldOa05qQmhaQzAyTXpVeExUUTNNRGt0T1dFM01TMDJZVGhoTVdJNE5URXdNMllRQVE9PRAIGiRFRUU2QUZCMi1FNEZDLTQ2N0UtQjRERS0zMkFEQkU1RkUwNzM</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$11.73</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzTWpobE1XRXhaaTFpWkRrMUxUUm1ZVFV0WWpVek5TMWpPV1ZpWkRFNFpqbGpZVElRQVE9PRAIGiQ4NzUxREZDMi1DNTM4LTQyNkEtOUI5MC02M0U3OUI2Rjc4REU</t>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWldOa05qQmhaQzAyTXpVeExUUTNNRGt0T1dFM01TMDJZVGhoTVdJNE5URXdNMllRQVE9PRAIGiRFRUU2QUZCMi1FNEZDLTQ2N0UtQjRERS0zMkFEQkU1RkUwNzM</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$11.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paid: Windows Server</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTnpsbE1UTXlaaTB6TWpabExUUXdPVGd0T1dJeE5DMWlNalJpTlRWaFpERTJObVVRQVE9PRAIGiREMTNGMUY4OS05MTQzLTQ5NTAtODREOS1DOERGQ0YxNDIyNzg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$503.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEyTnpsbE1UTXlaaTB6TWpabExUUXdPVGd0T1dJeE5DMWlNalJpTlRWaFpERTJObVVRQVE9PRAIGiREMTNGMUY4OS05MTQzLTQ5NTAtODREOS1DOERGQ0YxNDIyNzg</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$503.65</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWWpnNE1tWXlOUzB3Tm1ZeExUUTFNVEl0T1RjM05pMWtZMk16TkRGaU5XVmhabU1RQVE9PRAIGiQyOEU2ODA0RC04ODE2LTQ0NTctOTZCRi04REJFQTQyMDFDNzQ</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$416.70</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF3WWprNFpHSXpZeTAxTkROa0xUUmxPVGN0T1RCaFpTMHdNemt3WTJFM04yWmlObVlRQVE9PRAIGiRFMkJGNDRDNS1EOTUzLTQ0NjQtOTY4RC1FOUE4NkJCMzMyQUI</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>$374.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWW1KaE5qTXdaaTAyTjJJNUxUUm1aakl0WVRVMVpDMW1ZalExTVRKbFl6WmhOamtRQVE9PRAIGiQxQUU4NjQ4OC00MjA1LTQyOUItQkRBNy0yNzVBNjMxNDZBMzA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWW1KaE5qTXdaaTAyTjJJNUxUUm1aakl0WVRVMVpDMW1ZalExTVRKbFl6WmhOamtRQVE9PRAIGiQxQUU4NjQ4OC00MjA1LTQyOUItQkRBNy0yNzVBNjMxNDZBMzA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWW1KaE5qTXdaaTAyTjJJNUxUUm1aakl0WVRVMVpDMW1ZalExTVRKbFl6WmhOamtRQVE9PRAIGiQxQUU4NjQ4OC00MjA1LTQyOUItQkRBNy0yNzVBNjMxNDZBMzA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVEzWW1KaE5qTXdaaTAyTjJJNUxUUm1aakl0WVRVMVpDMW1ZalExTVRKbFl6WmhOamtRQVE9PRAIGiQxQUU4NjQ4OC00MjA1LTQyOUItQkRBNy0yNzVBNjMxNDZBMzA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1T0ROaE1tUm1NaTB4T0dJMkxUUmxNR1V0T1RZNVlTMWxNakJoWVRJM1kyVTJPRFlRQVE9PRAIGiQzMTg4QUNBRC00MkU5LTQxODAtOTc3OC0yNTY4MjQ5ODYwQTE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$27.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVE1T0ROaE1tUm1NaTB4T0dJMkxUUmxNR1V0T1RZNVlTMWxNakJoWVRJM1kyVTJPRFlRQVE9PRAIGiQzMTg4QUNBRC00MkU5LTQxODAtOTc3OC0yNTY4MjQ5ODYwQTE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$27.55</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF5WlRCbVlqazBOUzFqTldWa0xUUTROemN0T0RFMU55MHlaV1k1WVRNNU9XUTVOellRQVE9PRAIGiRDREY3ODAzRC1DNzA5LTQyQkItODkxOS01NkQyNEFGMDNGMjQ</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$17.35</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJpWVRGaE5XTmpZeTFqTkRaaExUUXdZV0l0T1dFeU9DMDBORFZqTlRrMU9EQm1OV0VRQVE9PRAIGiQwMUUwMTNERC00NEU5LTQxNDMtQUM1Mi0wRDA0NDZDNTYwRTY</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>$12.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free: Debian, CentOS, CoreOS, Ubuntu or BYOL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>general purpose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWldZeVlUTmtNaTA0T0RoaUxUUXlNamN0WW1OaFl5MDNNekpqTVRoa01EVTJZV0VRQVE9PRAIGiRGRjk5OUQ5Ni1GQTJDLTRCQTktQjZBQy1CQkQ5NTY5NzY0OTQ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$110.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJoWldZeVlUTmtNaTA0T0RoaUxUUXlNamN0WW1OaFl5MDNNekpqTVRoa01EVTJZV0VRQVE9PRAIGiRGRjk5OUQ5Ni1GQTJDLTRCQTktQjZBQy1CQkQ5NTY5NzY0OTQ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$110.19</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVF6WWpjNU5ESXhNaTB3WWpJMExUUTFNMkV0WVRnNVppMDBZV1U1TWpreE1HWmpPRElRQVE9PRAIGiRCRTBGOUVBNS02MUNFLTRCQzctQTE4OS0yMzk5Q0Y2RjgwQUQ</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>$69.42</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://cloud.google.com/products/calculator?dl=CjhDaVJrWW1OaU5ETmtNUzB3TnpreExUUmtZVE10T1RjNE15MHpabUZqTkdWaU5HSXdaR0VRQVE9PRAIGiQ2NTdDMjEzQi03QkM1LTRGMjEtQjEzOC1DQzU1NjRCQjQxN0E</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>$49.58</t>
         </is>
       </c>
     </row>
